--- a/tools/screen_raw_data/plate_to_file.xlsx
+++ b/tools/screen_raw_data/plate_to_file.xlsx
@@ -455,8 +455,8 @@
   </sheetPr>
   <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tools/screen_raw_data/plate_to_file.xlsx
+++ b/tools/screen_raw_data/plate_to_file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="215">
   <si>
     <t xml:space="preserve">plate</t>
   </si>
@@ -28,322 +28,640 @@
     <t xml:space="preserve">file</t>
   </si>
   <si>
+    <t xml:space="preserve">P014599</t>
+  </si>
+  <si>
     <t xml:space="preserve">14599_Batch2_4408.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014600</t>
+  </si>
+  <si>
     <t xml:space="preserve">14600_Batch2_4409.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014601</t>
+  </si>
+  <si>
     <t xml:space="preserve">14601_Batch2_4410.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014602</t>
+  </si>
+  <si>
     <t xml:space="preserve">14602_Batch2_4411.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014603</t>
+  </si>
+  <si>
     <t xml:space="preserve">14603_Batch2_4412.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014604</t>
+  </si>
+  <si>
     <t xml:space="preserve">14604_Batch2_4413.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014605</t>
+  </si>
+  <si>
     <t xml:space="preserve">14605_Batch2_4414.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014606</t>
+  </si>
+  <si>
     <t xml:space="preserve">14606_Batch2_4415.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014607</t>
+  </si>
+  <si>
     <t xml:space="preserve">14607_Batch2_4416.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014608</t>
+  </si>
+  <si>
     <t xml:space="preserve">14608_Batch2_4417.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014609</t>
+  </si>
+  <si>
     <t xml:space="preserve">14609_Batch2_4418.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014610</t>
+  </si>
+  <si>
     <t xml:space="preserve">14610_Batch2_4419.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014611</t>
+  </si>
+  <si>
     <t xml:space="preserve">14611_Batch2_4420.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014612</t>
+  </si>
+  <si>
     <t xml:space="preserve">14612_Batch2_4421.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014613</t>
+  </si>
+  <si>
     <t xml:space="preserve">14613_Batch2_4422.csv</t>
   </si>
   <si>
     <t xml:space="preserve">14613_Batch4_4537.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014614</t>
+  </si>
+  <si>
     <t xml:space="preserve">14614_Batch2_4423.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014615</t>
+  </si>
+  <si>
     <t xml:space="preserve">14615_Batch2_4424.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014616</t>
+  </si>
+  <si>
     <t xml:space="preserve">14616_Batch2_4425.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014617</t>
+  </si>
+  <si>
     <t xml:space="preserve">14617_Batch2_4426.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014618</t>
+  </si>
+  <si>
     <t xml:space="preserve">14618_Batch2_4427.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014619</t>
+  </si>
+  <si>
     <t xml:space="preserve">14619_Batch3_List_4481.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014620</t>
+  </si>
+  <si>
     <t xml:space="preserve">14620_Batch3_List_4482.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014621</t>
+  </si>
+  <si>
     <t xml:space="preserve">14621_Batch3_List_4483.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014622</t>
+  </si>
+  <si>
     <t xml:space="preserve">14622_Batch3_List_4484.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014623</t>
+  </si>
+  <si>
     <t xml:space="preserve">14623_Batch3_List_4485.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014624</t>
+  </si>
+  <si>
     <t xml:space="preserve">14624_Batch3_List_4486.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014625</t>
+  </si>
+  <si>
     <t xml:space="preserve">14625_Batch3_List_4487.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014626</t>
+  </si>
+  <si>
     <t xml:space="preserve">14626_Batch3_List_4488.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014627</t>
+  </si>
+  <si>
     <t xml:space="preserve">14627_Batch3_List_4489.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014628</t>
+  </si>
+  <si>
     <t xml:space="preserve">14628_Batch3_List_4490.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014629</t>
+  </si>
+  <si>
     <t xml:space="preserve">14629_Batch3_List_4491.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014630</t>
+  </si>
+  <si>
     <t xml:space="preserve">14630_Batch3_List_4492.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014631</t>
+  </si>
+  <si>
     <t xml:space="preserve">14631_Batch3_List_4493.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014632</t>
+  </si>
+  <si>
     <t xml:space="preserve">14632_Batch3_List_4494.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014633</t>
+  </si>
+  <si>
     <t xml:space="preserve">14633_Batch3_List_4495.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014634</t>
+  </si>
+  <si>
     <t xml:space="preserve">14634_Batch3_List_4496.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014635</t>
+  </si>
+  <si>
     <t xml:space="preserve">14635_Batch3_List_4497.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014636</t>
+  </si>
+  <si>
     <t xml:space="preserve">14636_Batch3_List_4498.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014637</t>
+  </si>
+  <si>
     <t xml:space="preserve">14637_Batch3_List_4499.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014638</t>
+  </si>
+  <si>
     <t xml:space="preserve">14638_Batch3_List_4500.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014639</t>
+  </si>
+  <si>
     <t xml:space="preserve">14639_Batch3_List_4501.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014640</t>
+  </si>
+  <si>
     <t xml:space="preserve">14640_Batch3_List_4502.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014641</t>
+  </si>
+  <si>
     <t xml:space="preserve">14641_Batch3_List_4503.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014642</t>
+  </si>
+  <si>
     <t xml:space="preserve">14642_Batch3_List_4504.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014643</t>
+  </si>
+  <si>
     <t xml:space="preserve">14643_Batch3_List_4505.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014644</t>
+  </si>
+  <si>
     <t xml:space="preserve">14644_Batch3_List_4506.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014645</t>
+  </si>
+  <si>
     <t xml:space="preserve">14645_Batch3_List_4507.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014646</t>
+  </si>
+  <si>
     <t xml:space="preserve">14646_Batch3_List_4508.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014647</t>
+  </si>
+  <si>
     <t xml:space="preserve">14647_Batch3_List_4509.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014648</t>
+  </si>
+  <si>
     <t xml:space="preserve">14648_Batch3_List_4510.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014649</t>
+  </si>
+  <si>
     <t xml:space="preserve">14649_Batch4_4517.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014650</t>
+  </si>
+  <si>
     <t xml:space="preserve">14650_Batch4_4518.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014651</t>
+  </si>
+  <si>
     <t xml:space="preserve">14651_Batch4_4519.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014652</t>
+  </si>
+  <si>
     <t xml:space="preserve">14652_Batch4_4520.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014653</t>
+  </si>
+  <si>
     <t xml:space="preserve">14653_Batch4_4521.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014654</t>
+  </si>
+  <si>
     <t xml:space="preserve">14654_Batch4_4522.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014655</t>
+  </si>
+  <si>
     <t xml:space="preserve">14655_Batch4_4523.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014656</t>
+  </si>
+  <si>
     <t xml:space="preserve">14656_Batch4_4524.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014657</t>
+  </si>
+  <si>
     <t xml:space="preserve">14657_Batch4_4525.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014658</t>
+  </si>
+  <si>
     <t xml:space="preserve">14658_Batch4_4526.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014659</t>
+  </si>
+  <si>
     <t xml:space="preserve">14659_Batch4_4527.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014660</t>
+  </si>
+  <si>
     <t xml:space="preserve">14660_Batch4_4528.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014661</t>
+  </si>
+  <si>
     <t xml:space="preserve">14661_Batch4_4529.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014662</t>
+  </si>
+  <si>
     <t xml:space="preserve">14662_Batch4_4530.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014663</t>
+  </si>
+  <si>
     <t xml:space="preserve">14663_Batch4_4531.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014664</t>
+  </si>
+  <si>
     <t xml:space="preserve">14664_Batch4_4532.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014665</t>
+  </si>
+  <si>
     <t xml:space="preserve">14665_Batch4_4533.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014666</t>
+  </si>
+  <si>
     <t xml:space="preserve">14666_Batch4_4534.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014667</t>
+  </si>
+  <si>
     <t xml:space="preserve">14667_Batch4_4535.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014668</t>
+  </si>
+  <si>
     <t xml:space="preserve">14668_Batch4_4536.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014669</t>
+  </si>
+  <si>
     <t xml:space="preserve">14669_Batch4_4543.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014670</t>
+  </si>
+  <si>
     <t xml:space="preserve">14670_Batch4_4542.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014671</t>
+  </si>
+  <si>
     <t xml:space="preserve">14671_Batch4_4541.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014672</t>
+  </si>
+  <si>
     <t xml:space="preserve">14672_Batch4_4540.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014673</t>
+  </si>
+  <si>
     <t xml:space="preserve">14673_Batch4_4539.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014678</t>
+  </si>
+  <si>
     <t xml:space="preserve">14678_Batch4_4538.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014821</t>
+  </si>
+  <si>
     <t xml:space="preserve">14821_4338.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014822</t>
+  </si>
+  <si>
     <t xml:space="preserve">14822_4339.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014823</t>
+  </si>
+  <si>
     <t xml:space="preserve">14823_4340.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014824</t>
+  </si>
+  <si>
     <t xml:space="preserve">14824_4341.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014825</t>
+  </si>
+  <si>
     <t xml:space="preserve">14825_4342.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014826</t>
+  </si>
+  <si>
     <t xml:space="preserve">14826_4343.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014827</t>
+  </si>
+  <si>
     <t xml:space="preserve">14827_4344.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014828</t>
+  </si>
+  <si>
     <t xml:space="preserve">14828_4345.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014829</t>
+  </si>
+  <si>
     <t xml:space="preserve">14829_4346.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014830</t>
+  </si>
+  <si>
     <t xml:space="preserve">14830_4357.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014831</t>
+  </si>
+  <si>
     <t xml:space="preserve">14831_4358.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014832</t>
+  </si>
+  <si>
     <t xml:space="preserve">14832_4359.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014833</t>
+  </si>
+  <si>
     <t xml:space="preserve">14833_4360.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014834</t>
+  </si>
+  <si>
     <t xml:space="preserve">14834_4361.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014835</t>
+  </si>
+  <si>
     <t xml:space="preserve">14835_4362.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014836</t>
+  </si>
+  <si>
     <t xml:space="preserve">14836_4363.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014837</t>
+  </si>
+  <si>
     <t xml:space="preserve">14837_4364.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014838</t>
+  </si>
+  <si>
     <t xml:space="preserve">14838_4365.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014839</t>
+  </si>
+  <si>
     <t xml:space="preserve">14839_4366.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014840</t>
+  </si>
+  <si>
     <t xml:space="preserve">14840_4367.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014841</t>
+  </si>
+  <si>
     <t xml:space="preserve">14841_4347.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014842</t>
+  </si>
+  <si>
     <t xml:space="preserve">14842_4348.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014843</t>
+  </si>
+  <si>
     <t xml:space="preserve">14843_4349.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014844</t>
+  </si>
+  <si>
     <t xml:space="preserve">14844_4350.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014845</t>
+  </si>
+  <si>
     <t xml:space="preserve">14845_4351.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014846</t>
+  </si>
+  <si>
     <t xml:space="preserve">14846_4352.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014847</t>
+  </si>
+  <si>
     <t xml:space="preserve">14847_4353.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014848</t>
+  </si>
+  <si>
     <t xml:space="preserve">14848_4354.csv</t>
   </si>
   <si>
+    <t xml:space="preserve">P014849</t>
+  </si>
+  <si>
     <t xml:space="preserve">14849_4355.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P014850</t>
   </si>
   <si>
     <t xml:space="preserve">14850_4356.csv</t>
@@ -438,32 +756,30 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,865 +791,865 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>14599</v>
+      <c r="A2" s="0" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>14600</v>
+      <c r="A3" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>14601</v>
+      <c r="A4" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>14602</v>
+      <c r="A5" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>14603</v>
+      <c r="A6" s="0" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>14604</v>
+      <c r="A7" s="0" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>14605</v>
+      <c r="A8" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>14606</v>
+      <c r="A9" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>14607</v>
+      <c r="A10" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>14608</v>
+      <c r="A11" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>14609</v>
+      <c r="A12" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>14610</v>
+      <c r="A13" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>14611</v>
+      <c r="A14" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14612</v>
+      <c r="A15" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>14613</v>
+      <c r="A16" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>14613</v>
+      <c r="A17" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>14614</v>
+      <c r="A18" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>14615</v>
+      <c r="A19" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>14616</v>
+      <c r="A20" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>14617</v>
+      <c r="A21" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>14618</v>
+      <c r="A22" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>14619</v>
+      <c r="A23" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>14620</v>
+      <c r="A24" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>14621</v>
+      <c r="A25" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>14622</v>
+      <c r="A26" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
-        <v>14623</v>
+      <c r="A27" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
-        <v>14624</v>
+      <c r="A28" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
-        <v>14625</v>
+      <c r="A29" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
-        <v>14626</v>
+      <c r="A30" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
-        <v>14627</v>
+      <c r="A31" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
-        <v>14628</v>
+      <c r="A32" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
-        <v>14629</v>
+      <c r="A33" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>14630</v>
+      <c r="A34" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>14631</v>
+      <c r="A35" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>14632</v>
+      <c r="A36" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
-        <v>14633</v>
+      <c r="A37" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
-        <v>14634</v>
+      <c r="A38" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
-        <v>14635</v>
+      <c r="A39" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
-        <v>14636</v>
+      <c r="A40" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
-        <v>14637</v>
+      <c r="A41" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>14638</v>
+      <c r="A42" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>14639</v>
+      <c r="A43" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>14640</v>
+      <c r="A44" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
-        <v>14641</v>
+      <c r="A45" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
-        <v>14642</v>
+      <c r="A46" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
-        <v>14643</v>
+      <c r="A47" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
-        <v>14644</v>
+      <c r="A48" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
-        <v>14645</v>
+      <c r="A49" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
-        <v>14646</v>
+      <c r="A50" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
-        <v>14647</v>
+      <c r="A51" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>14648</v>
+      <c r="A52" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
-        <v>14649</v>
+      <c r="A53" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
-        <v>14650</v>
+      <c r="A54" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
-        <v>14651</v>
+      <c r="A55" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
-        <v>14652</v>
+      <c r="A56" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
-        <v>14653</v>
+      <c r="A57" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
-        <v>14654</v>
+      <c r="A58" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
-        <v>14655</v>
+      <c r="A59" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
-        <v>14656</v>
+      <c r="A60" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
-        <v>14657</v>
+      <c r="A61" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
-        <v>14658</v>
+      <c r="A62" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
-        <v>14659</v>
+      <c r="A63" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
-        <v>14660</v>
+      <c r="A64" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
-        <v>14661</v>
+      <c r="A65" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
-        <v>14662</v>
+      <c r="A66" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
-        <v>14663</v>
+      <c r="A67" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
-        <v>14664</v>
+      <c r="A68" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
-        <v>14665</v>
+      <c r="A69" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
-        <v>14666</v>
+      <c r="A70" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
-        <v>14667</v>
+      <c r="A71" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>71</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
-        <v>14668</v>
+      <c r="A72" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
-        <v>14669</v>
+      <c r="A73" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
-        <v>14670</v>
+      <c r="A74" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
-        <v>14671</v>
+      <c r="A75" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
-        <v>14672</v>
+      <c r="A76" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
-        <v>14673</v>
+      <c r="A77" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
-        <v>14678</v>
+      <c r="A78" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
-        <v>14821</v>
+      <c r="A79" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
-        <v>14822</v>
+      <c r="A80" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>14823</v>
+      <c r="A81" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>14824</v>
+      <c r="A82" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>14825</v>
+      <c r="A83" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
-        <v>14826</v>
+      <c r="A84" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
-        <v>14827</v>
+      <c r="A85" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
-        <v>14828</v>
+      <c r="A86" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
-        <v>14829</v>
+      <c r="A87" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
-        <v>14830</v>
+      <c r="A88" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>14831</v>
+      <c r="A89" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>14832</v>
+      <c r="A90" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>14833</v>
+      <c r="A91" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
-        <v>14834</v>
+      <c r="A92" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
-        <v>14835</v>
+      <c r="A93" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
-        <v>14836</v>
+      <c r="A94" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
-        <v>14837</v>
+      <c r="A95" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
-        <v>14838</v>
+      <c r="A96" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
-        <v>14839</v>
+      <c r="A97" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>97</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>14840</v>
+      <c r="A98" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
-        <v>14841</v>
+      <c r="A99" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>14842</v>
+      <c r="A100" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
-        <v>14843</v>
+      <c r="A101" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
-        <v>14844</v>
+      <c r="A102" s="0" t="s">
+        <v>201</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>102</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
-        <v>14845</v>
+      <c r="A103" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
-        <v>14846</v>
+      <c r="A104" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
-        <v>14847</v>
+      <c r="A105" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
-        <v>14848</v>
+      <c r="A106" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
-        <v>14849</v>
+      <c r="A107" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
-        <v>14850</v>
+      <c r="A108" s="0" t="s">
+        <v>213</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
